--- a/p4-01-analyse.xlsx
+++ b/p4-01-analyse.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Openclassrooms\Projets\Projet 4 Optimisez un site web existant\Projet 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36C14B5-992D-48E2-8E99-173913E6D60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993072D-DA40-4D8C-829C-C8296706E7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="1" r:id="rId1"/>
     <sheet name="Tableau pwp" sheetId="8" r:id="rId2"/>
-    <sheet name="Perf~pwp" sheetId="7" r:id="rId3"/>
-    <sheet name="Mots clés" sheetId="2" r:id="rId4"/>
+    <sheet name="Tableau page 1" sheetId="7" r:id="rId3"/>
+    <sheet name="Tableau page 2" sheetId="10" r:id="rId4"/>
+    <sheet name="Mots clés" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tableau!$B$2:$J$2</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="154">
   <si>
     <t>Categorie</t>
   </si>
@@ -439,9 +440,6 @@
     <t>Repecter la hierarchie des titres</t>
   </si>
   <si>
-    <t>La hierarchie entre les titres doit être respecter on doit avoir cette ordre H1 puis H2 puis H3 etc…</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faire le changement dans le code </t>
   </si>
   <si>
@@ -533,6 +531,36 @@
   </si>
   <si>
     <t>Remplacer les mots clé par logo de la chouette agence</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Ordinateur</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Contraste</t>
+  </si>
+  <si>
+    <t>Alertes</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>PageSpeed Insights</t>
+  </si>
+  <si>
+    <t>La hierarchie entre les titres doit être respectée, on doit avoir cette ordre H1 puis H2 puis H3 etc…</t>
   </si>
 </sst>
 </file>
@@ -914,7 +942,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1064,6 +1092,9 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,6 +1106,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1295,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>1</v>
@@ -1349,11 +1389,11 @@
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1392,7 +1432,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="53" t="s">
+      <c r="I3" s="54" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -1404,7 +1444,7 @@
       <c r="L3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="54" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1429,7 +1469,7 @@
         <v>52</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="53"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1479,7 @@
       <c r="L4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="53"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:28" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
@@ -1464,17 +1504,17 @@
         <v>26</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="53"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:28" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
@@ -1499,7 +1539,7 @@
         <v>63</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="12" t="s">
         <v>14</v>
       </c>
@@ -1507,7 +1547,7 @@
         <v>85</v>
       </c>
       <c r="L6" s="12"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:28" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
@@ -1532,13 +1572,13 @@
         <v>43</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
         <v>86</v>
       </c>
       <c r="L7" s="12"/>
-      <c r="M7" s="53"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -1557,10 +1597,10 @@
         <v>112</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="7"/>
@@ -1648,19 +1688,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="10"/>
@@ -1673,19 +1713,19 @@
         <v>13</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>116</v>
-      </c>
       <c r="E13" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="G13" s="39" t="s">
         <v>119</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>120</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="9"/>
@@ -1881,19 +1921,19 @@
         <v>13</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
@@ -1945,7 +1985,7 @@
         <v>88</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -3122,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -3206,7 +3246,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -3218,7 +3258,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="17"/>
     </row>
@@ -3266,7 +3306,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -4258,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2370B1E-DF8F-494B-A6D7-79E23734A64B}">
-  <dimension ref="E4:J20"/>
+  <dimension ref="E4:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E32" sqref="E4:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,29 +4311,29 @@
     <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="5:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="E4" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="5:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>130</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>10</v>
@@ -4302,7 +4342,7 @@
     </row>
     <row r="6" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E6" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="21">
         <v>0.82</v>
@@ -4317,12 +4357,12 @@
         <v>0.89</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E7" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="22">
         <v>0.98</v>
@@ -4337,12 +4377,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F8" s="27">
         <v>0.16</v>
@@ -4357,7 +4397,7 @@
         <v>0.11</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
@@ -4365,25 +4405,25 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E10" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+      <c r="E10" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="5:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>130</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>10</v>
@@ -4392,7 +4432,7 @@
     </row>
     <row r="12" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E12" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="21">
         <v>0.78</v>
@@ -4407,12 +4447,12 @@
         <v>0.78</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E13" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="22">
         <v>0.84</v>
@@ -4427,12 +4467,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E14" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="28">
         <v>0.06</v>
@@ -4447,67 +4487,682 @@
         <v>0.22</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="5:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="5:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E18" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="29">
         <v>35</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" s="24" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E19" s="24" t="s">
-        <v>132</v>
       </c>
       <c r="F19" s="30">
         <v>0</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E20" s="24" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E20" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="F20" s="24">
         <f>F19-F18</f>
         <v>-35</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+    </row>
+    <row r="23" spans="5:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="51"/>
+    </row>
+    <row r="24" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E24" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="29">
+        <v>73</v>
+      </c>
+      <c r="G24" s="29">
+        <v>81</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E25" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="30">
+        <v>79</v>
+      </c>
+      <c r="G25" s="30">
+        <v>97</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E26" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="24">
+        <f>F25-F24</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="24">
+        <f>G25-G24</f>
+        <v>16</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="5:12" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E30" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="29">
+        <v>5</v>
+      </c>
+      <c r="G30" s="29">
+        <v>29</v>
+      </c>
+      <c r="H30" s="29">
+        <v>12</v>
+      </c>
+      <c r="I30" s="29">
+        <v>7</v>
+      </c>
+      <c r="J30" s="29">
+        <v>15</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31" s="30">
+        <v>3</v>
+      </c>
+      <c r="I31" s="30">
+        <v>10</v>
+      </c>
+      <c r="J31" s="30">
+        <v>13</v>
+      </c>
+      <c r="K31" s="30">
+        <v>5</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E32" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="24">
+        <f>F31-F30</f>
+        <v>-5</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" ref="G32:K32" si="0">G31-G30</f>
+        <v>-29</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="K32" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="E22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B87980F-42FA-4705-9FD8-992BDAC7E7CA}">
+  <dimension ref="B3:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.92</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.24</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.93</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.24</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.4">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="29">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="30">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="24">
+        <f>C18-C17</f>
+        <v>-11</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+    </row>
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="29">
+        <v>91</v>
+      </c>
+      <c r="D23" s="29">
+        <v>98</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="30">
+        <v>93</v>
+      </c>
+      <c r="D24" s="30">
+        <v>99</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="24">
+        <f>C24-C23</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="24">
+        <f>D24-D23</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="2:9" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="29">
+        <v>9</v>
+      </c>
+      <c r="D29" s="29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="29">
+        <v>3</v>
+      </c>
+      <c r="H29" s="29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30">
+        <v>6</v>
+      </c>
+      <c r="G30" s="30">
+        <v>3</v>
+      </c>
+      <c r="H30" s="30">
+        <v>5</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="57">
+        <f>C30-C29</f>
+        <v>-9</v>
+      </c>
+      <c r="D31" s="57">
+        <f t="shared" ref="D31:H31" si="0">D30-D29</f>
+        <v>-4</v>
+      </c>
+      <c r="E31" s="57">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F31" s="57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G31" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF638C56-920C-4178-9F90-B1A3E4A64B48}">
   <dimension ref="A2:E17"/>
   <sheetViews>
@@ -4526,7 +5181,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4644,7 +5299,7 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -4667,7 +5322,7 @@
     </row>
     <row r="13" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -4712,7 +5367,7 @@
         <v>69</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.4">

--- a/p4-01-analyse.xlsx
+++ b/p4-01-analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Openclassrooms\Projets\Projet 4 Optimisez un site web existant\Projet 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A993072D-DA40-4D8C-829C-C8296706E7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E10F6-6027-477A-86CB-EC4007F0E8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>Page 2 : HTML ==&gt; ligne 21</t>
-  </si>
-  <si>
-    <t>Donner de la visibibilité</t>
   </si>
   <si>
     <t>Devenir une entreprise attractive</t>
@@ -561,6 +558,9 @@
   </si>
   <si>
     <t>La hierarchie entre les titres doit être respectée, on doit avoir cette ordre H1 puis H2 puis H3 etc…</t>
+  </si>
+  <si>
+    <t>Donner de la visibilité</t>
   </si>
 </sst>
 </file>
@@ -1095,6 +1095,12 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,12 +1115,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>1</v>
@@ -1389,11 +1389,11 @@
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1417,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>12</v>
@@ -1432,19 +1432,19 @@
         <v>32</v>
       </c>
       <c r="H3" s="17"/>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="56" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="L3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="56" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
         <v>58</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>54</v>
@@ -1469,17 +1469,17 @@
         <v>52</v>
       </c>
       <c r="H4" s="17"/>
-      <c r="I4" s="54"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M4" s="54"/>
+        <v>88</v>
+      </c>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:28" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
@@ -1489,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>24</v>
@@ -1504,17 +1504,17 @@
         <v>26</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="54"/>
+      <c r="I5" s="56"/>
       <c r="J5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="54"/>
+        <v>90</v>
+      </c>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:28" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
@@ -1524,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>27</v>
@@ -1539,15 +1539,15 @@
         <v>63</v>
       </c>
       <c r="H6" s="17"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L6" s="12"/>
-      <c r="M6" s="54"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:28" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
@@ -1566,19 +1566,19 @@
         <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" s="12"/>
-      <c r="M7" s="54"/>
+      <c r="M7" s="56"/>
     </row>
     <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -1588,19 +1588,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>113</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="7"/>
@@ -1613,19 +1613,19 @@
         <v>13</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="G9" s="34" t="s">
         <v>100</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>101</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="7"/>
@@ -1663,19 +1663,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>109</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="7"/>
@@ -1688,19 +1688,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="10"/>
@@ -1713,19 +1713,19 @@
         <v>13</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>115</v>
-      </c>
       <c r="E13" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="G13" s="39" t="s">
         <v>118</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>119</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="9"/>
@@ -1742,7 +1742,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>54</v>
@@ -1768,7 +1768,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>54</v>
@@ -1904,7 +1904,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>43</v>
@@ -1921,19 +1921,19 @@
         <v>13</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
@@ -1953,13 +1953,13 @@
         <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
@@ -1973,7 +1973,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>19</v>
@@ -1982,10 +1982,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1999,7 +1999,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>9</v>
@@ -3150,7 +3150,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="17"/>
     </row>
@@ -3162,7 +3162,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -3174,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -3198,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -3210,7 +3210,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -3246,7 +3246,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -3258,7 +3258,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="17"/>
     </row>
@@ -3306,7 +3306,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -4300,7 +4300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2370B1E-DF8F-494B-A6D7-79E23734A64B}">
   <dimension ref="E4:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E32" sqref="E4:L32"/>
     </sheetView>
   </sheetViews>
@@ -4315,25 +4315,25 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="E4" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="5:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>10</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="6" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E6" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="21">
         <v>0.82</v>
@@ -4357,12 +4357,12 @@
         <v>0.89</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E7" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F7" s="22">
         <v>0.98</v>
@@ -4377,12 +4377,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="27">
         <v>0.16</v>
@@ -4397,7 +4397,7 @@
         <v>0.11</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
@@ -4405,25 +4405,25 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E10" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="E10" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
     </row>
     <row r="11" spans="5:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>10</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="12" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E12" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="21">
         <v>0.78</v>
@@ -4447,12 +4447,12 @@
         <v>0.78</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E13" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="22">
         <v>0.84</v>
@@ -4467,12 +4467,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E14" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="28">
         <v>0.06</v>
@@ -4487,78 +4487,78 @@
         <v>0.22</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="5:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E18" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" s="29">
         <v>35</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E19" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="30">
         <v>0</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E20" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="24">
         <f>F19-F18</f>
         <v>-35</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="5:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E22" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="E22" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="5:12" ht="30" x14ac:dyDescent="0.4">
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="H23" s="51"/>
     </row>
     <row r="24" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E24" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="29">
         <v>73</v>
@@ -4567,12 +4567,12 @@
         <v>81</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E25" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="30">
         <v>79</v>
@@ -4581,12 +4581,12 @@
         <v>97</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="24">
         <f>F25-F24</f>
@@ -4597,46 +4597,46 @@
         <v>16</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="5:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E28" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
+      <c r="E28" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
     </row>
     <row r="29" spans="5:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="I29" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="23" t="s">
+      <c r="K29" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="L29" s="23"/>
     </row>
     <row r="30" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="29">
         <v>5</v>
@@ -4657,12 +4657,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E31" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" s="30">
         <v>0</v>
@@ -4683,12 +4683,12 @@
         <v>5</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E32" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32" s="24">
         <f>F31-F30</f>
@@ -4715,7 +4715,7 @@
         <v>5</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4745,25 +4745,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -4787,12 +4787,12 @@
         <v>0.89</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
@@ -4807,12 +4807,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
@@ -4827,7 +4827,7 @@
         <v>0.11</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -4835,25 +4835,25 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="B9" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>128</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>129</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>10</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="21">
         <v>0.92</v>
@@ -4877,12 +4877,12 @@
         <v>0.85</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="22">
         <v>0.98</v>
@@ -4897,12 +4897,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="28">
         <v>0.06</v>
@@ -4917,79 +4917,79 @@
         <v>0.15</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.4">
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="51"/>
-      <c r="G16" s="58"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="29">
         <v>11</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="30">
         <v>0</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="24">
         <f>C18-C17</f>
         <v>-11</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="B21" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B22" s="23"/>
       <c r="C22" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>145</v>
       </c>
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C23" s="29">
         <v>91</v>
@@ -4998,12 +4998,12 @@
         <v>98</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="30">
         <v>93</v>
@@ -5012,12 +5012,12 @@
         <v>99</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="24">
         <f>C24-C23</f>
@@ -5028,46 +5028,46 @@
         <v>1</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
+      <c r="B27" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="2:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B28" s="23"/>
       <c r="C28" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="F28" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="23" t="s">
+      <c r="H28" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>150</v>
       </c>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="29">
         <v>9</v>
@@ -5088,12 +5088,12 @@
         <v>0</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="30">
         <v>0</v>
@@ -5114,39 +5114,39 @@
         <v>5</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="57">
+        <v>131</v>
+      </c>
+      <c r="C31" s="52">
         <f>C30-C29</f>
         <v>-9</v>
       </c>
-      <c r="D31" s="57">
+      <c r="D31" s="52">
         <f t="shared" ref="D31:H31" si="0">D30-D29</f>
         <v>-4</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="52">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5167,7 +5167,7 @@
   <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5181,7 +5181,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -5200,16 +5200,16 @@
         <v>28</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5217,16 +5217,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5234,10 +5234,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
@@ -5268,7 +5268,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>42</v>
@@ -5285,13 +5285,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="43" t="s">
         <v>33</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="13" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -5344,7 +5344,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>31</v>
@@ -5364,10 +5364,10 @@
         <v>35</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.4">

--- a/p4-01-analyse.xlsx
+++ b/p4-01-analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Openclassrooms\Projets\Projet 4 Optimisez un site web existant\Projet 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E10F6-6027-477A-86CB-EC4007F0E8FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780E4F0-AD87-4AD2-8118-99D9B251F086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="155">
   <si>
     <t>Categorie</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Il n'y a pas de balise  "robots"</t>
-  </si>
-  <si>
-    <t>l'attribu "Content" n'est pas renseigné</t>
   </si>
   <si>
     <t>Il faut renseigner l'attribu "Content</t>
@@ -515,9 +512,6 @@
     <t>Mots Clés</t>
   </si>
   <si>
-    <t>Méta description : l'attribu "Content" n'est pas renseigné</t>
-  </si>
-  <si>
     <t>Bouton trop petit</t>
   </si>
   <si>
@@ -561,6 +555,15 @@
   </si>
   <si>
     <t>Donner de la visibilité</t>
+  </si>
+  <si>
+    <t>l'attribut "Content" n'est pas renseigné</t>
+  </si>
+  <si>
+    <t>Il faut renseigner l'attribut "Content</t>
+  </si>
+  <si>
+    <t>Méta description : l'attribut "Content" n'est pas renseigné</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1339,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>1</v>
@@ -1417,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>12</v>
@@ -1429,20 +1432,20 @@
         <v>17</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="56" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>81</v>
-      </c>
       <c r="L3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="56" t="s">
         <v>5</v>
@@ -1454,19 +1457,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="56"/>
@@ -1474,10 +1477,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="56"/>
     </row>
@@ -1489,19 +1492,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="56"/>
@@ -1509,10 +1512,10 @@
         <v>16</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="56"/>
     </row>
@@ -1524,19 +1527,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="56"/>
@@ -1544,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="56"/>
@@ -1557,25 +1560,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="56"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="56"/>
@@ -1588,19 +1591,19 @@
         <v>10</v>
       </c>
       <c r="C8" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>111</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>112</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="7"/>
@@ -1613,19 +1616,19 @@
         <v>13</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="G9" s="34" t="s">
         <v>99</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>100</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="7"/>
@@ -1638,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>6</v>
@@ -1647,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>18</v>
@@ -1663,19 +1666,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>108</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="7"/>
@@ -1688,19 +1691,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="10"/>
@@ -1713,19 +1716,19 @@
         <v>13</v>
       </c>
       <c r="C13" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>114</v>
-      </c>
       <c r="E13" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="G13" s="39" t="s">
         <v>117</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>118</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="9"/>
@@ -1739,19 +1742,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="7"/>
@@ -1765,19 +1768,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="17"/>
       <c r="I15" s="6"/>
@@ -1791,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>12</v>
@@ -1803,7 +1806,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="6"/>
@@ -1817,19 +1820,19 @@
         <v>10</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>56</v>
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="6"/>
@@ -1843,19 +1846,19 @@
         <v>10</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="H18" s="17"/>
       <c r="I18" s="7"/>
@@ -1869,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>6</v>
@@ -1878,7 +1881,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>18</v>
@@ -1895,19 +1898,19 @@
         <v>13</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
@@ -1921,19 +1924,19 @@
         <v>13</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
@@ -1953,13 +1956,13 @@
         <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>103</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="7"/>
@@ -1973,7 +1976,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>19</v>
@@ -1982,10 +1985,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1999,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>9</v>
@@ -2008,10 +2011,10 @@
         <v>11</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -3089,7 +3092,7 @@
   <dimension ref="A1:Q993"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3150,7 +3153,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="17"/>
     </row>
@@ -3162,7 +3165,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -3174,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="17"/>
     </row>
@@ -3186,7 +3189,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="17"/>
     </row>
@@ -3198,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -3210,7 +3213,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="17"/>
     </row>
@@ -3234,7 +3237,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -3246,7 +3249,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="17"/>
     </row>
@@ -3258,7 +3261,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="17"/>
     </row>
@@ -3270,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="D14" s="17"/>
     </row>
@@ -3306,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -4300,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2370B1E-DF8F-494B-A6D7-79E23734A64B}">
   <dimension ref="E4:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E4:L32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,7 +4319,7 @@
   <sheetData>
     <row r="4" spans="5:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
@@ -4327,13 +4330,13 @@
     <row r="5" spans="5:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E5" s="23"/>
       <c r="F5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="H5" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>10</v>
@@ -4342,7 +4345,7 @@
     </row>
     <row r="6" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E6" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="21">
         <v>0.82</v>
@@ -4357,12 +4360,12 @@
         <v>0.89</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E7" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="22">
         <v>0.98</v>
@@ -4377,12 +4380,12 @@
         <v>1</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E8" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="27">
         <v>0.16</v>
@@ -4397,7 +4400,7 @@
         <v>0.11</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="5:10" x14ac:dyDescent="0.25">
@@ -4406,7 +4409,7 @@
     </row>
     <row r="10" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
@@ -4417,13 +4420,13 @@
     <row r="11" spans="5:10" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>10</v>
@@ -4432,7 +4435,7 @@
     </row>
     <row r="12" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E12" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="21">
         <v>0.78</v>
@@ -4447,12 +4450,12 @@
         <v>0.78</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E13" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="22">
         <v>0.84</v>
@@ -4467,12 +4470,12 @@
         <v>1</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="5:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E14" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="28">
         <v>0.06</v>
@@ -4487,60 +4490,60 @@
         <v>0.22</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="5:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="25"/>
       <c r="F16" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="5:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E17" s="23"/>
       <c r="F17" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E18" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F18" s="29">
         <v>35</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E19" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" s="30">
         <v>0</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E20" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="24">
         <f>F19-F18</f>
         <v>-35</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E22" s="58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="58"/>
       <c r="G22" s="58"/>
@@ -4549,16 +4552,16 @@
     <row r="23" spans="5:12" ht="30" x14ac:dyDescent="0.4">
       <c r="E23" s="23"/>
       <c r="F23" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H23" s="51"/>
     </row>
     <row r="24" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E24" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" s="29">
         <v>73</v>
@@ -4567,12 +4570,12 @@
         <v>81</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E25" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="30">
         <v>79</v>
@@ -4581,12 +4584,12 @@
         <v>97</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E26" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="24">
         <f>F25-F24</f>
@@ -4597,12 +4600,12 @@
         <v>16</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="5:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E28" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F28" s="58"/>
       <c r="G28" s="58"/>
@@ -4615,28 +4618,28 @@
     <row r="29" spans="5:12" ht="22.8" x14ac:dyDescent="0.4">
       <c r="E29" s="23"/>
       <c r="F29" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="K29" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>149</v>
       </c>
       <c r="L29" s="23"/>
     </row>
     <row r="30" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E30" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="29">
         <v>5</v>
@@ -4657,12 +4660,12 @@
         <v>0</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E31" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="30">
         <v>0</v>
@@ -4683,12 +4686,12 @@
         <v>5</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E32" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F32" s="24">
         <f>F31-F30</f>
@@ -4715,7 +4718,7 @@
         <v>5</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4733,7 +4736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B87980F-42FA-4705-9FD8-992BDAC7E7CA}">
   <dimension ref="B3:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -4746,7 +4749,7 @@
   <sheetData>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -4757,13 +4760,13 @@
     <row r="4" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B4" s="23"/>
       <c r="C4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>10</v>
@@ -4772,7 +4775,7 @@
     </row>
     <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -4787,12 +4790,12 @@
         <v>0.89</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="22">
         <v>1</v>
@@ -4807,12 +4810,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="27">
         <v>0</v>
@@ -4827,7 +4830,7 @@
         <v>0.11</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -4836,7 +4839,7 @@
     </row>
     <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
@@ -4847,13 +4850,13 @@
     <row r="10" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>10</v>
@@ -4862,7 +4865,7 @@
     </row>
     <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="21">
         <v>0.92</v>
@@ -4877,12 +4880,12 @@
         <v>0.85</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="22">
         <v>0.98</v>
@@ -4897,12 +4900,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="28">
         <v>0.06</v>
@@ -4917,12 +4920,12 @@
         <v>0.15</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
@@ -4930,48 +4933,48 @@
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.4">
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="51"/>
       <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="29">
         <v>11</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="30">
         <v>0</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="24">
         <f>C18-C17</f>
         <v>-11</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
@@ -4980,16 +4983,16 @@
     <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.4">
       <c r="B22" s="23"/>
       <c r="C22" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="29">
         <v>91</v>
@@ -4998,12 +5001,12 @@
         <v>98</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="30">
         <v>93</v>
@@ -5012,12 +5015,12 @@
         <v>99</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="24">
         <f>C24-C23</f>
@@ -5028,12 +5031,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -5046,28 +5049,28 @@
     <row r="28" spans="2:9" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B28" s="23"/>
       <c r="C28" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="H28" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>149</v>
       </c>
       <c r="I28" s="23"/>
     </row>
     <row r="29" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="29">
         <v>9</v>
@@ -5088,12 +5091,12 @@
         <v>0</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="30">
         <v>0</v>
@@ -5114,12 +5117,12 @@
         <v>5</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" s="52">
         <f>C30-C29</f>
@@ -5146,7 +5149,7 @@
         <v>5</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5181,7 +5184,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -5197,109 +5200,109 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -5322,7 +5325,7 @@
     </row>
     <row r="13" spans="1:5" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -5338,36 +5341,36 @@
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.4">
